--- a/7th Week/Dung v3.0/PhamAnhDung_BlackBox_StaffManagement.xlsx
+++ b/7th Week/Dung v3.0/PhamAnhDung_BlackBox_StaffManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning Resources\Cong Nghe Phan Mem\Do An\Codee\trunk\7th week\Dung v3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning Resources\Cong Nghe Phan Mem\Do An\Codee\trunk\7th Week\Dung v3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="136">
   <si>
     <t>Module Code</t>
   </si>
@@ -735,6 +735,72 @@
   </si>
   <si>
     <t>Show the StaffManagement screen, all functions can excute</t>
+  </si>
+  <si>
+    <t>SM_1</t>
+  </si>
+  <si>
+    <t>SM_2</t>
+  </si>
+  <si>
+    <t>SM_3</t>
+  </si>
+  <si>
+    <t>SM_4</t>
+  </si>
+  <si>
+    <t>SM_5</t>
+  </si>
+  <si>
+    <t>SM_6</t>
+  </si>
+  <si>
+    <t>SM_7</t>
+  </si>
+  <si>
+    <t>SM_A_1</t>
+  </si>
+  <si>
+    <t>SM_A_2</t>
+  </si>
+  <si>
+    <t>SM_A_3</t>
+  </si>
+  <si>
+    <t>SM_A_4</t>
+  </si>
+  <si>
+    <t>SM_A_5</t>
+  </si>
+  <si>
+    <t>SM_A_6</t>
+  </si>
+  <si>
+    <t>SM_U_1</t>
+  </si>
+  <si>
+    <t>SM_U_2</t>
+  </si>
+  <si>
+    <t>SM_U_3</t>
+  </si>
+  <si>
+    <t>SM_U_4</t>
+  </si>
+  <si>
+    <t>SM_U_5</t>
+  </si>
+  <si>
+    <t>SM_U_6</t>
+  </si>
+  <si>
+    <t>SM_Tb_1</t>
+  </si>
+  <si>
+    <t>SM_Tb_2</t>
+  </si>
+  <si>
+    <t>SM_Tb_3</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1324,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1507,6 +1573,26 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,25 +1627,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2223,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2242,13 +2314,13 @@
     <row r="2" spans="1:7" s="38" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="40"/>
@@ -2259,11 +2331,11 @@
       <c r="B4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="42" t="s">
         <v>20</v>
       </c>
@@ -2275,38 +2347,38 @@
       <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="96" t="str">
+      <c r="C6" s="104" t="str">
         <f>C5&amp;"_"&amp;"Test case"&amp;"_"&amp;"v"&amp;G7</f>
         <v>StaffManagement_Test case_v1.0</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="95">
         <v>42341</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="95"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
@@ -2355,7 +2427,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="58" customFormat="1">
-      <c r="B12" s="112">
+      <c r="B12" s="100">
         <v>42341</v>
       </c>
       <c r="C12" s="59" t="s">
@@ -2474,38 +2546,38 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="str">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106" t="str">
         <f>D3</f>
         <v>MobilePhone Store Management</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="75"/>
@@ -2545,7 +2617,7 @@
       <c r="C9" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="93" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="86" t="s">
@@ -2701,9 +2773,9 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2736,13 +2808,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -2754,13 +2826,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -2772,11 +2844,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -2795,10 +2867,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -2817,17 +2889,17 @@
       </c>
       <c r="C6" s="21">
         <f>E6-D6-B6-A6</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" s="22">
         <f>COUNTIF(F$32:F$1014,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="101">
-        <f>COUNTA(A32:A999)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="101"/>
+      <c r="E6" s="109">
+        <f>COUNTA(A10:A999)</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="109"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -2887,8 +2959,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="66">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="113" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>63</v>
@@ -2896,7 +2968,7 @@
       <c r="C10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="94" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -2908,8 +2980,8 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A11" s="31">
-        <v>2</v>
+      <c r="A11" s="113" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>64</v>
@@ -2917,7 +2989,7 @@
       <c r="C11" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="114" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -2929,8 +3001,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A12" s="31">
-        <v>3</v>
+      <c r="A12" s="113" t="s">
+        <v>116</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>65</v>
@@ -2938,7 +3010,7 @@
       <c r="C12" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="114" t="s">
         <v>72</v>
       </c>
       <c r="E12" s="34" t="s">
@@ -2950,8 +3022,8 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A13" s="31">
-        <v>4</v>
+      <c r="A13" s="113" t="s">
+        <v>117</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>66</v>
@@ -2959,7 +3031,7 @@
       <c r="C13" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="114" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -2971,8 +3043,8 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A14" s="31">
-        <v>5</v>
+      <c r="A14" s="113" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>109</v>
@@ -2980,19 +3052,19 @@
       <c r="C14" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="97" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A15" s="31">
-        <v>6</v>
+      <c r="A15" s="113" t="s">
+        <v>119</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>103</v>
@@ -3000,19 +3072,19 @@
       <c r="C15" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="98" t="s">
         <v>105</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:10" s="90" customFormat="1" ht="26.4">
-      <c r="A16" s="31">
-        <v>7</v>
+      <c r="A16" s="113" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>100</v>
@@ -3020,15 +3092,15 @@
       <c r="C16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="98" t="s">
         <v>102</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:9" s="90" customFormat="1">
       <c r="A17" s="30"/>
@@ -3134,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3168,13 +3240,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -3186,13 +3258,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -3204,11 +3276,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -3227,10 +3299,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -3255,11 +3327,11 @@
         <f>COUNTIF(F$30:F$1012,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="109">
         <f>COUNTA(A30:A997)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -3319,8 +3391,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="113" t="s">
+        <v>121</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>73</v>
@@ -3340,8 +3412,8 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="26.4">
-      <c r="A11" s="31">
-        <v>2</v>
+      <c r="A11" s="113" t="s">
+        <v>122</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>74</v>
@@ -3361,8 +3433,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A12" s="31">
-        <v>3</v>
+      <c r="A12" s="113" t="s">
+        <v>123</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>78</v>
@@ -3382,8 +3454,8 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A13" s="31">
-        <v>4</v>
+      <c r="A13" s="113" t="s">
+        <v>124</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>81</v>
@@ -3403,8 +3475,8 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A14" s="31">
-        <v>5</v>
+      <c r="A14" s="113" t="s">
+        <v>125</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>41</v>
@@ -3424,8 +3496,8 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="26.4">
-      <c r="A15" s="31">
-        <v>6</v>
+      <c r="A15" s="113" t="s">
+        <v>126</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>44</v>
@@ -3547,7 +3619,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3580,13 +3652,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -3598,13 +3670,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -3616,11 +3688,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -3639,10 +3711,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -3667,11 +3739,11 @@
         <f>COUNTIF(F$30:F$1012,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="109">
         <f>COUNTA(A30:A997)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -3731,8 +3803,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="113" t="s">
+        <v>127</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>84</v>
@@ -3752,8 +3824,8 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:10" s="90" customFormat="1" ht="26.4">
-      <c r="A11" s="31">
-        <v>2</v>
+      <c r="A11" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>74</v>
@@ -3773,8 +3845,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A12" s="31">
-        <v>3</v>
+      <c r="A12" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>78</v>
@@ -3794,8 +3866,8 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="90" customFormat="1" ht="52.8">
-      <c r="A13" s="31">
-        <v>4</v>
+      <c r="A13" s="113" t="s">
+        <v>130</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>81</v>
@@ -3815,8 +3887,8 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="90" customFormat="1" ht="39.6">
-      <c r="A14" s="31">
-        <v>5</v>
+      <c r="A14" s="113" t="s">
+        <v>131</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>41</v>
@@ -3836,8 +3908,8 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="90" customFormat="1" ht="26.4">
-      <c r="A15" s="31">
-        <v>6</v>
+      <c r="A15" s="113" t="s">
+        <v>132</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>44</v>
@@ -3968,7 +4040,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -4001,13 +4073,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -4019,13 +4091,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -4037,11 +4109,11 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -4060,10 +4132,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -4088,11 +4160,11 @@
         <f>COUNTIF(F$21:F$1003,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="109">
         <f>COUNTA(A21:A988)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="101"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -4152,8 +4224,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:11" s="90" customFormat="1" ht="52.8">
-      <c r="A10" s="31">
-        <v>1</v>
+      <c r="A10" s="113" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>98</v>
@@ -4173,8 +4245,8 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:11" s="90" customFormat="1" ht="39.6">
-      <c r="A11" s="31">
-        <v>2</v>
+      <c r="A11" s="113" t="s">
+        <v>134</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>103</v>
@@ -4194,8 +4266,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:11" s="90" customFormat="1" ht="26.4">
-      <c r="A12" s="31">
-        <v>3</v>
+      <c r="A12" s="113" t="s">
+        <v>135</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>100</v>
@@ -4209,9 +4281,9 @@
       <c r="E12" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:11" s="90" customFormat="1">
